--- a/Lessons/Lesson02/Lesson02_Homework.xlsx
+++ b/Lessons/Lesson02/Lesson02_Homework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/afb04e5a841adf33/Documents/GitHub/IntroToExcel/Lessons/Lesson02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="8_{A8CC901F-3301-4E59-80E1-69C65C475832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{150E06F8-7446-4A50-BA42-C78D4A927B4B}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{A8CC901F-3301-4E59-80E1-69C65C475832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23E58024-3A62-4839-B441-7C29EB421650}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{B743010D-C9DF-4FB9-B797-0F3970CDB3F7}"/>
   </bookViews>
@@ -280,32 +280,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">7) In the worksheet </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Q7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> load the SAT data that we worked with in classcreate a data validation for the cell as described</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">8) In the worksheet </t>
     </r>
     <r>
@@ -442,6 +416,32 @@
   <si>
     <t>E5 - F5 - G5 - H5</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7) In the worksheet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> load the SAT data that we worked with in class</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -451,9 +451,9 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -501,6 +501,14 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -594,13 +602,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -615,23 +622,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -835,12 +834,12 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1E63CF4-E662-4700-9ABA-BBB7A0FEED66}" name="Table1" displayName="Table1" ref="A18:F19" totalsRowShown="0">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{959297BA-282E-4DDE-99ED-924BFA3054CD}" name="Value" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{0FB0E2E1-5A93-412A-8660-FEC1DE30ADE7}" name="1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{0EB5C511-5A83-450B-8E7F-069F800A2794}" name="2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{CEE3D32F-807F-47B6-A228-C7133F4C62FA}" name="3" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{9CA336D5-A96D-45FA-AA0C-50CE762B14AC}" name="4" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{68A0AF60-4416-4E5A-ADC4-F7BA2FF04522}" name="5" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{959297BA-282E-4DDE-99ED-924BFA3054CD}" name="Value" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0FB0E2E1-5A93-412A-8660-FEC1DE30ADE7}" name="1" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{0EB5C511-5A83-450B-8E7F-069F800A2794}" name="2" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{CEE3D32F-807F-47B6-A228-C7133F4C62FA}" name="3" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9CA336D5-A96D-45FA-AA0C-50CE762B14AC}" name="4" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{68A0AF60-4416-4E5A-ADC4-F7BA2FF04522}" name="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1143,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F71DC3-85C6-46DE-8B98-598DF58EAD9B}">
-  <dimension ref="A13:F30"/>
+  <dimension ref="A12:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -1155,16 +1154,19 @@
     <col min="2" max="3" width="8.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="25.8" x14ac:dyDescent="0.95">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1190,14 +1192,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
@@ -1226,27 +1228,27 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A27" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A28" s="11" t="s">
-        <v>32</v>
+      <c r="A28" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A29" s="11" t="s">
-        <v>36</v>
+      <c r="A29" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A30" s="11" t="s">
-        <v>39</v>
+      <c r="A30" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1280,112 +1282,112 @@
   <sheetData>
     <row r="2" spans="2:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>3</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>4</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>5</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>6</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>7</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>8</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>9</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>3</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>4</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>5</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>6</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>7</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>8</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>9</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>1</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>3</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>5</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>7</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>9</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>10</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>8</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>6</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>4</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>2</v>
       </c>
     </row>
@@ -1408,15 +1410,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
       <c r="G4">
@@ -1424,7 +1426,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>200000</v>
       </c>
       <c r="G5">
@@ -1440,7 +1442,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>-100</v>
       </c>
       <c r="G7">
@@ -1496,8 +1498,8 @@
       <c r="J1">
         <v>53</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>40</v>
+      <c r="N1" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1532,9 +1534,9 @@
         <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
@@ -1568,9 +1570,9 @@
         <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
@@ -1604,9 +1606,9 @@
         <v>-21</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
@@ -1640,9 +1642,9 @@
         <v>-36</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
@@ -1676,9 +1678,9 @@
         <v>-57</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
@@ -1712,9 +1714,9 @@
         <v>-24</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
@@ -1748,9 +1750,9 @@
         <v>-54</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9">
@@ -1831,32 +1833,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.3515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.9375" style="6"/>
+    <col min="1" max="1" width="10.3515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.9375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" s="6">
+      <c r="A1" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>5</v>
       </c>
     </row>
@@ -4484,7 +4486,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4693,7 +4695,7 @@
       </c>
     </row>
     <row r="5" spans="2:2" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="9"/>
+      <c r="B5" s="8"/>
     </row>
     <row r="10" spans="2:2" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
@@ -4701,7 +4703,7 @@
       </c>
     </row>
     <row r="11" spans="2:2" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4735,10 +4737,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4795,7 +4797,7 @@
         <v>-100</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Lessons/Lesson02/Lesson02_Homework.xlsx
+++ b/Lessons/Lesson02/Lesson02_Homework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/afb04e5a841adf33/Documents/GitHub/IntroToExcel/Lessons/Lesson02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="8_{A8CC901F-3301-4E59-80E1-69C65C475832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23E58024-3A62-4839-B441-7C29EB421650}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{A8CC901F-3301-4E59-80E1-69C65C475832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1174803A-5714-4B53-93B4-2D28C2DBB451}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{B743010D-C9DF-4FB9-B797-0F3970CDB3F7}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>CKCS Intro to Excel Homework</t>
   </si>
@@ -369,30 +369,6 @@
     <t>To Here</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">11) In the worksheet </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Q11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complete the calculations as described</t>
-    </r>
-  </si>
-  <si>
     <t>Calculate the following</t>
   </si>
   <si>
@@ -447,11 +423,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -598,19 +578,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -625,10 +605,22 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1142,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F71DC3-85C6-46DE-8B98-598DF58EAD9B}">
-  <dimension ref="A12:O30"/>
+  <dimension ref="A12:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -1155,14 +1147,14 @@
   </cols>
   <sheetData>
     <row r="12" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="O12" s="18"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:15" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1192,14 +1184,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
@@ -1228,27 +1220,22 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A30" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1286,34 +1273,34 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>2</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>3</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>4</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>5</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>6</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>7</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="11">
         <v>8</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <v>9</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="12">
         <v>10</v>
       </c>
     </row>
@@ -1323,34 +1310,34 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>2</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>3</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>4</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>5</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <v>6</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <v>7</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <v>8</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <v>9</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="12">
         <v>10</v>
       </c>
     </row>
@@ -1360,34 +1347,34 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>5</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <v>7</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>9</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <v>10</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <v>8</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <v>6</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <v>4</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="12">
         <v>2</v>
       </c>
     </row>
@@ -1401,35 +1388,36 @@
   <dimension ref="B3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G4" sqref="G4:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="23.41015625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.8203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>200000</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="14">
         <v>300000</v>
       </c>
     </row>
@@ -1437,15 +1425,15 @@
       <c r="B6" s="2">
         <v>43831</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>43863</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>-100</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="15">
         <v>-200</v>
       </c>
     </row>
@@ -1498,8 +1486,8 @@
       <c r="J1">
         <v>53</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>39</v>
+      <c r="N1" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1534,9 +1522,9 @@
         <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
@@ -1570,9 +1558,9 @@
         <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
@@ -1606,9 +1594,9 @@
         <v>-21</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
@@ -1642,9 +1630,9 @@
         <v>-36</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
@@ -1678,9 +1666,9 @@
         <v>-57</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
@@ -1714,9 +1702,9 @@
         <v>-24</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
@@ -1750,9 +1738,9 @@
         <v>-54</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9">
@@ -1833,32 +1821,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.3515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.9375" style="5"/>
+    <col min="1" max="1" width="10.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.9375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" s="5">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>5</v>
       </c>
     </row>
@@ -4477,7 +4465,7 @@
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -4486,9 +4474,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="18" t="s">
         <v>24</v>
       </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.5">
       <c r="C3" t="s">
@@ -4675,6 +4666,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4695,7 +4689,7 @@
       </c>
     </row>
     <row r="5" spans="2:2" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="8"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="10" spans="2:2" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
@@ -4703,7 +4697,7 @@
       </c>
     </row>
     <row r="11" spans="2:2" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="9"/>
+      <c r="B11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4727,25 +4721,25 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.41015625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2">
+      <c r="A2" s="19">
         <v>1.0010010101010001</v>
       </c>
       <c r="B2" t="s">
@@ -4753,7 +4747,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3">
+      <c r="A3" s="20">
         <v>10000000</v>
       </c>
       <c r="B3" t="s">
@@ -4761,7 +4755,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="1">
+      <c r="A4" s="21">
         <v>43831</v>
       </c>
       <c r="B4" t="s">
@@ -4769,7 +4763,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5">
+      <c r="A5" s="22">
         <v>0.27</v>
       </c>
       <c r="B5" t="s">
@@ -4777,7 +4771,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="3">
+      <c r="A6" s="23">
         <v>100</v>
       </c>
       <c r="B6" t="s">
@@ -4785,7 +4779,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="3">
+      <c r="A7" s="24">
         <v>100</v>
       </c>
       <c r="B7" t="s">
@@ -4793,7 +4787,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="3">
+      <c r="A8" s="25">
         <v>-100</v>
       </c>
       <c r="B8" t="s">
